--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value328.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value328.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8257738182977348</v>
+        <v>0.850993812084198</v>
       </c>
       <c r="B1">
-        <v>1.597205234337494</v>
+        <v>1.285834670066833</v>
       </c>
       <c r="C1">
-        <v>5.068081848433382</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.064174044683077</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.033005201767119</v>
+        <v>1.360522508621216</v>
       </c>
     </row>
   </sheetData>
